--- a/assets/tools/unit-calculations.xlsx
+++ b/assets/tools/unit-calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14840" yWindow="0" windowWidth="25560" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pixels per points" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
